--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -16,8 +16,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 6" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 10" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -191,12 +192,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$10</f>
+              <f>'Master Summary'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$10</f>
+              <f>'Master Summary'!$C$2:$C$11</f>
             </numRef>
           </val>
         </ser>
@@ -223,12 +224,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$10</f>
+              <f>'Master Summary'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$10</f>
+              <f>'Master Summary'!$D$2:$D$11</f>
             </numRef>
           </val>
         </ser>
@@ -255,12 +256,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$10</f>
+              <f>'Master Summary'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$10</f>
+              <f>'Master Summary'!$E$2:$E$11</f>
             </numRef>
           </val>
         </ser>
@@ -1103,12 +1104,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$10</f>
+              <f>'Master Summary'!$A$2:$A$11</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$10</f>
+              <f>'Master Summary'!$J$2:$J$11</f>
             </numRef>
           </val>
         </ser>
@@ -1140,7 +1141,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$10</f>
+              <f>'Master Summary'!$K$2:$K$11</f>
             </numRef>
           </val>
         </ser>
@@ -2676,6 +2677,134 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 10'!B105</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 10'!$A$106:$A$115</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 10'!$B$106:$B$115</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 10'!B117</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 10'!$A$118:$A$127</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 10'!$B$118:$B$127</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -2729,6 +2858,179 @@
         </scaling>
         <axPos val="l"/>
         <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 10'!B129</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 10'!$A$130:$A$139</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 10'!$B$130:$B$139</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 10'!B141</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 10'!$A$142:$A$144</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 10'!$B$142:$B$144</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
         <majorTickMark val="none"/>
         <minorTickMark val="none"/>
         <crossAx val="10"/>
@@ -3156,7 +3458,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3178,7 +3480,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>11</row>
+      <row>12</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3272,6 +3574,99 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>76</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>116</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>128</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>140</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -4303,7 +4698,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4765,6 +5160,49 @@
         <v>0.3022424852777778</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>13.13</v>
+      </c>
+      <c r="D11" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>62</v>
+      </c>
+      <c r="H11" t="n">
+        <v>44</v>
+      </c>
+      <c r="I11" t="n">
+        <v>48</v>
+      </c>
+      <c r="J11" t="n">
+        <v>32.03</v>
+      </c>
+      <c r="K11" t="n">
+        <v>45</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.6015893761111112</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.373571843888889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -4772,379 +5210,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Uncategorized Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Address Extraction Failed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Package Not Found</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Sag Height Not Found</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Packing: Placement Failure</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>End Effector: Vacuum Failure</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Physical Constraints: Package Dimension Error</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Motion: Pick/Place Execution Failed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unknown: No Error Message</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Motion: Pick/Raise Execution Failed</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Server Error</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-10</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5159,52 +5224,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -5753,24 +5818,24 @@
     </row>
     <row r="17"/>
     <row r="18">
-      <c r="B18" s="1" t="inlineStr">
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -5780,7 +5845,7 @@
           <t>11.41</t>
         </is>
       </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -5790,7 +5855,7 @@
           <t>28.81</t>
         </is>
       </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -5802,7 +5867,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -5812,7 +5877,7 @@
           <t>8.96</t>
         </is>
       </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -5822,7 +5887,7 @@
           <t>15.70</t>
         </is>
       </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -5834,7 +5899,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -5844,7 +5909,7 @@
           <t>15.10</t>
         </is>
       </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -5854,7 +5919,7 @@
           <t>38.36</t>
         </is>
       </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -5867,17 +5932,17 @@
     </row>
     <row r="22"/>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C23" s="1" t="inlineStr">
+      <c r="C23" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
@@ -6157,12 +6222,12 @@
     </row>
     <row r="40"/>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="B41" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6270,12 +6335,12 @@
     </row>
     <row r="52"/>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6383,12 +6448,12 @@
     </row>
     <row r="64"/>
     <row r="65">
-      <c r="A65" s="1" t="inlineStr">
+      <c r="A65" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="B65" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -6496,12 +6561,12 @@
     </row>
     <row r="76"/>
     <row r="77">
-      <c r="A77" s="1" t="inlineStr">
+      <c r="A77" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="B77" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -6518,6 +6583,3840 @@
       </c>
     </row>
     <row r="79"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unknown: No Error Message</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N145"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:03.272595</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8.162111028999789</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:12:37.581631</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 4)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>33.53651796200029</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:06.491963</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>10.4212173169999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:24.385186</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9.4804225150001</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:13:22.257290</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 33)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>25.0472177190004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>33</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:26.781875</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>11.07268797299912</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:45.933966</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10.17183721499896</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:15:22.062794</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 36)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>15.39736666700082</v>
+      </c>
+      <c r="G4" t="n">
+        <v>36</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:43.348940</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>6.803997667999283</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:25:09.771296</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18.66422961300123</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:16:47.698226</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 31)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>19.19455518799987</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:24:57.462948</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>5.529900409001129</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:25:31.278999</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15.51787676300046</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:35:47.364894</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 30)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>19.84374980900066</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:25:22.182966</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5.612660843000413</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:36:55.330307</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10.33709595500113</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:37:19.169315</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 14)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>23.95421430900024</v>
+      </c>
+      <c r="G7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:36:53.975362</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>8.033866757001306</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:37:22.418739</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17.60292637499879</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:38:40.434166</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 37)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>26.68971415000124</v>
+      </c>
+      <c r="G8" t="n">
+        <v>37</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:37:11.280771</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>5.641030841999964</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:39:41.698021</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>8.986766492998868</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:41:01.821835</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>29.07506574099898</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:37:49.526082</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>5.493412911999258</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:40:07.116517</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>14.2072782209998</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:45:11.662105</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 44)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>39.20177288299965</v>
+      </c>
+      <c r="G10" t="n">
+        <v>44</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:39:42.822468</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>9.199095929001487</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:40:33.825359</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>10.755108587</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:51:17.752000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>27.24155346299995</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:39:59.397489</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>5.661746701000084</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:40:57.216096</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>17.65173242899982</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:52:36.600386</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 46)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>30.05464784800097</v>
+      </c>
+      <c r="G12" t="n">
+        <v>46</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:40:30.561680</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>6.725024363999182</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:41:23.490037</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20.0259118110007</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:58:34.752293</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>26.2719978619989</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:41:10.502230</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>6.301057193000815</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:41:54.086192</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>17.32729903099971</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:00:04.936684</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 49)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>3.097867059999771</v>
+      </c>
+      <c r="G14" t="n">
+        <v>49</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:41:42.858881</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>5.251021967998895</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:42:20.948315</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>11.84156369300035</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:05:11.722199</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 49)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>29.09151983800075</v>
+      </c>
+      <c r="G15" t="n">
+        <v>49</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:42:43.531183</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>5.92113267500099</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:42:47.663792</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>10.85139237600015</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:05:54.245847</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 28)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>34.94780058600008</v>
+      </c>
+      <c r="G16" t="n">
+        <v>28</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:33.490711</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>9.1978466569999</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:31.667156</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>10.28779979800129</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:09:32.683408</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>14.79593626999849</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:49.724028</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>5.450545894000243</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:57.522217</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>14.01057786700039</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:20:55.321756</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>32.61923705499794</v>
+      </c>
+      <c r="G18" t="n">
+        <v>9</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:44:13.398431</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>5.357656700000007</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:44:21.313284</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>14.05245671800003</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:21:28.524034</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>25.24082847099999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:09.306799</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>6.388968391998787</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:44:54.076921</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>23.91233479200127</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:22:33.930935</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>19.96438717099954</v>
+      </c>
+      <c r="G20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:52.603301</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>6.799321770000461</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:19.653134</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>17.49439618199904</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:25:08.132856</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 16)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>21.71662499000013</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:46:19.947864</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>4.835801606001041</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:45:55.523761</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>12.71482328499951</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:25:08.132856</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>22.32343186900107</v>
+      </c>
+      <c r="G22" t="n">
+        <v>23</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:46:45.329647</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>8.513265344001411</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:46:25.680142</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>11.32367146499928</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:25:08.132856</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 34)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>31.88020487099857</v>
+      </c>
+      <c r="G23" t="n">
+        <v>34</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:47:14.752277</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>6.86316966099912</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:46:51.528338</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>15.50867296800061</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:27:04.844240</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 29)</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>18.16681361300289</v>
+      </c>
+      <c r="G24" t="n">
+        <v>29</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:47:37.631820</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.307077133000348</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:47:38.527040</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>10.9310039030006</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:28:21.844295</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>27.56854270700205</v>
+      </c>
+      <c r="G25" t="n">
+        <v>26</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:48:13.683416</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>8.064929747000861</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:48:20.023436</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>15.21372834400063</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:28:21.844295</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 27)</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>26.55683069500083</v>
+      </c>
+      <c r="G26" t="n">
+        <v>27</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:48:37.561487</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6.134344243000669</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:48:48.357064</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>17.69634991900057</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:34:37.359769</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 22)</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>20.13726983400193</v>
+      </c>
+      <c r="G27" t="n">
+        <v>22</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:33.418333</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>5.206972562000374</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:18.036654</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>14.67889458199897</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:35:41.805406</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 45)</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>27.85951921800006</v>
+      </c>
+      <c r="G28" t="n">
+        <v>45</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:57.257211</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>5.76516411600096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:40.440470</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13.02613419900081</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:36:20.682320</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 18)</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>26.09728426299989</v>
+      </c>
+      <c r="G29" t="n">
+        <v>18</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:13.764260</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>6.27381786099977</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:58.938553</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8.224492772998929</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:47:19.738286</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 10)</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>25.97129945399865</v>
+      </c>
+      <c r="G30" t="n">
+        <v>10</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:29.350211</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>4.691283833000853</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:16.261797</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>9.596338269999251</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:47:57.882945</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>24.66062335199967</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:46.616558</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5.930197431000124</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:32.073911</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>8.21700476299884</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:52:11.557022</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 42)</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>93.58659516199987</v>
+      </c>
+      <c r="G32" t="n">
+        <v>42</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:14.888740</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>7.28378775300007</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:50:55.337056</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>15.42991723300111</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:57:00.105968</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>28.14056197399987</v>
+      </c>
+      <c r="G33" t="n">
+        <v>21</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:35.395873</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>6.284166673998698</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:19.256949</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>12.5006546149998</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:58:17.075340</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 38)</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>20.80150830300045</v>
+      </c>
+      <c r="G34" t="n">
+        <v>38</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:53.844225</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>5.540914336001151</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:41.503105</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>13.19593238500056</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:00:21.850219</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>26.21062688500024</v>
+      </c>
+      <c r="G35" t="n">
+        <v>12</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:52:14.280463</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>5.907789085000331</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:51:57.503004</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>10.04121977100112</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:00:21.850219</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 41)</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>33.38900836899847</v>
+      </c>
+      <c r="G36" t="n">
+        <v>41</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:52:41.032335</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>6.706102170999657</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:52:17.964099</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>10.30373587199938</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:01:20.593265</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 48)</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>22.85038084199914</v>
+      </c>
+      <c r="G37" t="n">
+        <v>48</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:06.653205</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>4.970896396000171</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:52:46.207692</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>12.64992228600022</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:02:42.748875</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>24.34661926999979</v>
+      </c>
+      <c r="G38" t="n">
+        <v>7</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:22.810698</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>6.119235805001153</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:10.716892</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>9.804901285999222</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:02:42.748875</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 47)</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>15.06620030100021</v>
+      </c>
+      <c r="G39" t="n">
+        <v>47</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:50.805119</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>8.066854802000307</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:35.724160</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>19.81303812799888</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:03:25.501816</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>28.2927309709994</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:12.365458</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>5.827282045000175</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:53:54.077504</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>12.16344696899978</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:04:36.640342</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>23.16594093800086</v>
+      </c>
+      <c r="G41" t="n">
+        <v>17</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:32.704858</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>8.421782450001047</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:17.974733</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>12.26477260399952</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:06:43.515802</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>26.56052070399892</v>
+      </c>
+      <c r="G42" t="n">
+        <v>5</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:52.257283</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>6.765742525998576</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:38.016911</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>14.49647318499956</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:09:42.988743</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 32)</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>22.17777834300068</v>
+      </c>
+      <c r="G43" t="n">
+        <v>32</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:55:19.823797</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>5.512294995998673</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:54:56.135918</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>11.4272498499995</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:16:23.801251</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 40)</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>23.62839064999935</v>
+      </c>
+      <c r="G44" t="n">
+        <v>40</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:13.106272</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>9.0245173229996</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:55:23.270341</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>9.753500621000057</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:16:23.801251</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 43)</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>14.31770336300178</v>
+      </c>
+      <c r="G45" t="n">
+        <v>43</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:42.174639</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>9.766502038000908</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:55:43.791587</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10.6348046359999</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:33.803368</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>7.765552787999695</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:56:09.034624</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>17.91836656400119</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:59:36.078312</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>6.41671600600057</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:13.324201</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10.00670306800021</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:00:34.572795</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>7.865400296999724</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:33.242742</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>8.445297934998962</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:01:03.152320</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>7.566451131999202</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:59:40.064757</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>11.30421728900001</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:00:08.994349</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>15.68391924800017</v>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E53" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J53" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="D54" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>26.15</t>
+        </is>
+      </c>
+      <c r="I54" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="D55" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="I55" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="D56" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="I56" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C58" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:25:37.196390</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:25:37.206164</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:40:43.098759</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:42:12.466925</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:06.577782</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:14.311495</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 16</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:43:14.338542</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:44:33.460156</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:47:21.494828</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 24</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:47:21.616513</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:49:06.636079</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:55:36.427436</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:55:54.459906</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>No contour found</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:56:29.428474</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:56:29.434961</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:56:41.373007</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:56:41.378999</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:41.261805</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 48</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:41.279889</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:59.622461</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:57:59.807259</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:46.529193</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:46.536045</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:51.855292</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-07-24T20:58:51.862123</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:00:01.520376</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Failed to extract address using GPT query</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:00:38.427970</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:00:38.462607</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:01:06.013065</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:01:07.051954</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:03:34.996859</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 51 to be added to database</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:16:47.680693</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-07-24T21:16:47.698226</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:00:04.857677</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:00:04.936684</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:09:32.675921</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:09:32.683408</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:39:02.990053</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-07-24T22:39:02.994092</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:09:42.963339</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:09:42.964798</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Error message not found</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:11:45.016634</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Find Package Callback</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:11:45.025461</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Failed to find package</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:16:23.791362</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-07-24T23:16:23.801251</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+    </row>
+    <row r="104"/>
+    <row r="105">
+      <c r="A105" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>8.16-9.74</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>9.74-11.31</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>11.31-12.89</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12.89-14.46</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>14.46-16.04</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>16.04-17.61</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>17.61-19.19</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>19.19-20.76</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>20.76-22.34</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>22.34-23.91</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117">
+      <c r="A117" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B117" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>3.10-12.15</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12.15-21.20</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>21.20-30.24</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>30.24-39.29</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>39.29-48.34</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>48.34-57.39</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>57.39-66.44</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>66.44-75.49</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>75.49-84.54</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>84.54-93.59</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B129" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>4.69-5.33</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>5.33-5.97</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>5.97-6.61</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>6.61-7.24</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7.24-7.88</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7.88-8.52</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>8.52-9.16</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>9.16-9.80</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>9.80-10.43</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>10.43-11.07</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140"/>
+    <row r="141">
+      <c r="A141" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B141" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-07-24 21:00</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-07-24 22:00</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-07-24 23:00</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -17,8 +17,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 7" sheetId="8" state="visible" r:id="rId8"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 11" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -192,12 +193,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$11</f>
+              <f>'Master Summary'!$A$2:$A$12</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$11</f>
+              <f>'Master Summary'!$C$2:$C$12</f>
             </numRef>
           </val>
         </ser>
@@ -224,12 +225,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$11</f>
+              <f>'Master Summary'!$A$2:$A$12</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$11</f>
+              <f>'Master Summary'!$D$2:$D$12</f>
             </numRef>
           </val>
         </ser>
@@ -256,12 +257,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$11</f>
+              <f>'Master Summary'!$A$2:$A$12</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$11</f>
+              <f>'Master Summary'!$E$2:$E$12</f>
             </numRef>
           </val>
         </ser>
@@ -1104,12 +1105,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$11</f>
+              <f>'Master Summary'!$A$2:$A$12</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$11</f>
+              <f>'Master Summary'!$J$2:$J$12</f>
             </numRef>
           </val>
         </ser>
@@ -1141,7 +1142,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$11</f>
+              <f>'Master Summary'!$K$2:$K$12</f>
             </numRef>
           </val>
         </ser>
@@ -3042,6 +3043,307 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 11'!B72</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 11'!$A$73:$A$82</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 11'!$B$73:$B$82</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 11'!B84</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 11'!$A$85:$A$94</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 11'!$B$85:$B$94</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 11'!B96</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 11'!$A$97:$A$106</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 11'!$B$97:$B$106</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 11'!B108</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 11'!$A$109</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 11'!$B$109</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -3458,7 +3760,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3480,7 +3782,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>12</row>
+      <row>13</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3667,6 +3969,99 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>140</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>71</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>83</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>95</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>107</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -4698,7 +5093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5201,6 +5596,49 @@
       </c>
       <c r="M11" t="n">
         <v>1.373571843888889</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="D12" t="n">
+        <v>25.47</v>
+      </c>
+      <c r="E12" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23</v>
+      </c>
+      <c r="G12" t="n">
+        <v>27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>22</v>
+      </c>
+      <c r="I12" t="n">
+        <v>24</v>
+      </c>
+      <c r="J12" t="n">
+        <v>34.63</v>
+      </c>
+      <c r="K12" t="n">
+        <v>35</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.2007016502777778</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6353273230555555</v>
       </c>
     </row>
   </sheetData>
@@ -5947,6 +6385,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5964,6 +6407,11 @@
           <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5981,6 +6429,11 @@
           <t>Failed to pick and raise</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5998,6 +6451,11 @@
           <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6015,6 +6473,11 @@
           <t>Failed to pick and raise</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6032,6 +6495,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6049,6 +6517,11 @@
           <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6066,6 +6539,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6083,6 +6561,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6100,6 +6583,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -6117,6 +6605,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -6134,6 +6627,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -6148,7 +6646,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -6168,6 +6671,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -6185,6 +6693,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -6202,6 +6715,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -6216,7 +6734,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -6590,410 +7113,6 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:N11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Uncategorized Error</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Address Extraction Failed</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Package Not Found</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Sag Height Not Found</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Packing: Placement Failure</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>End Effector: Vacuum Failure</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Physical Constraints: Package Dimension Error</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Motion: Pick/Place Execution Failed</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Unknown: No Error Message</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Motion: Pick/Raise Execution Failed</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Server Error</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-07-03</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-07-07</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-07-08</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>6</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3</v>
-      </c>
-      <c r="J5" t="n">
-        <v>7</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-07-09</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5</v>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-07-10</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-07-21</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-07-22</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>2</v>
-      </c>
-      <c r="M9" t="n">
-        <v>9</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-07-24</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" t="n">
-        <v>21</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7008,52 +7127,52 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Package ID</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>Event Label</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
@@ -9139,24 +9258,24 @@
     </row>
     <row r="52"/>
     <row r="53">
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B53" s="2" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -9166,7 +9285,7 @@
           <t>13.13</t>
         </is>
       </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -9176,7 +9295,7 @@
           <t>26.15</t>
         </is>
       </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
@@ -9188,7 +9307,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="2" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -9198,7 +9317,7 @@
           <t>8.16</t>
         </is>
       </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -9208,7 +9327,7 @@
           <t>3.10</t>
         </is>
       </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
@@ -9220,7 +9339,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
+      <c r="A56" s="2" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -9230,7 +9349,7 @@
           <t>23.91</t>
         </is>
       </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -9240,7 +9359,7 @@
           <t>93.59</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
@@ -9253,19 +9372,24 @@
     </row>
     <row r="57"/>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="B58" s="2" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C58" s="1" t="inlineStr">
+      <c r="C58" s="2" t="inlineStr">
         <is>
           <t>Error Message</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
         </is>
       </c>
     </row>
@@ -9285,6 +9409,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -9302,6 +9431,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -9319,6 +9453,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -9336,6 +9475,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -9353,6 +9497,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -9370,6 +9519,11 @@
           <t>Failed to find placement for package with ID 16</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -9387,6 +9541,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -9404,6 +9563,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -9421,6 +9585,11 @@
           <t>Failed to find placement for package with ID 24</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -9438,6 +9607,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -9455,6 +9629,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -9472,6 +9651,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -9489,6 +9673,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -9506,6 +9695,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -9523,6 +9717,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -9540,6 +9739,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -9557,6 +9761,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -9574,6 +9783,11 @@
           <t>Failed to find placement for package with ID 48</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -9591,6 +9805,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -9608,6 +9827,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -9625,6 +9849,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -9642,6 +9871,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -9659,6 +9893,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -9676,6 +9915,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -9693,6 +9937,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -9710,6 +9959,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -9727,6 +9981,11 @@
           <t>Failed to find placement for package with ID 51</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -9744,6 +10003,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -9761,6 +10025,11 @@
           <t>Failed to find placement for package with ID 51</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -9778,6 +10047,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -9795,6 +10069,11 @@
           <t>OCR timeout waiting for package 51 to be added to database</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -9812,6 +10091,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -9829,6 +10113,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -9846,6 +10135,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -9863,6 +10157,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -9880,6 +10179,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -9897,6 +10201,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -9914,6 +10223,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -9928,7 +10242,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -9948,6 +10267,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -9962,7 +10286,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -9982,6 +10311,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -9999,6 +10333,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -10016,6 +10355,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -10033,15 +10377,20 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="104"/>
     <row r="105">
-      <c r="A105" s="1" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B105" s="1" t="inlineStr">
+      <c r="B105" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -10149,12 +10498,12 @@
     </row>
     <row r="116"/>
     <row r="117">
-      <c r="A117" s="1" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B117" s="1" t="inlineStr">
+      <c r="B117" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -10262,12 +10611,12 @@
     </row>
     <row r="128"/>
     <row r="129">
-      <c r="A129" s="1" t="inlineStr">
+      <c r="A129" s="2" t="inlineStr">
         <is>
           <t>Time Bins (s)</t>
         </is>
       </c>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="B129" s="2" t="inlineStr">
         <is>
           <t>Frequency</t>
         </is>
@@ -10375,12 +10724,12 @@
     </row>
     <row r="140"/>
     <row r="141">
-      <c r="A141" s="1" t="inlineStr">
+      <c r="A141" s="2" t="inlineStr">
         <is>
           <t>Hour</t>
         </is>
       </c>
-      <c r="B141" s="1" t="inlineStr">
+      <c r="B141" s="2" t="inlineStr">
         <is>
           <t>Packages Retrieved</t>
         </is>
@@ -10417,6 +10766,2823 @@
       </c>
     </row>
     <row r="145"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unknown: No Error Message</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-07-03</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-07-07</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-07-08</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-07-09</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-07-10</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-07-21</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-07-22</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G9" t="n">
+        <v>6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>9</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-07-23</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-07-24</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>21</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-07-31</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>16</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:52:05.313905</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8.182673329000067</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:20:35.862730</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>21.59020810199991</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:52:06.080425</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>7.479754869000089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:12.257127</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10.867609829</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:24:09.670379</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>22.36297699099998</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:09.689362</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6.665960324000025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:35.026553</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11.24606159500001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:24:09.670379</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25.87957885000003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:31.383484</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>5.832205151999915</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:58.807254</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10.270960296</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17.74581296299993</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:54.739108</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4.749096925999993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:20.349350</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12.16076136699996</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 19)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>121.992085478</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:15.543080</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5.508547365000027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:42.530848</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12.32444077000002</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>22.58552326100016</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:37.283011</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>5.18061201699993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:03.804682</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12.87177802899998</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>18.99289221399999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:57.228460</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4.745874447999995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:22.303564</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10.60509038600003</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>23.16249946200014</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:19.262929</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6.111741474000041</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:51.476868</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11.64992298200002</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>30.70044688500002</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:52.263790</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10.69649684700005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:14.492595</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12.86208218700017</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 10)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>22.4478273740001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:08.135506</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>5.133083541000133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:37.740718</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13.75674174899996</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>16.8236389130002</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:31.172819</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>5.505217454999865</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:00.452220</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12.27530641699991</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>22.85432056099989</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:55.215879</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>5.683165508999991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:18.590869</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8.848506265999958</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>22.5046317880001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:16.145389</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>4.531118533999916</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:39.614847</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7.969179949999898</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9.344545514999936</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:39.843456</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>6.835540583000011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:15.457116</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9.415472778999856</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>14.41689415700012</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:00.450435</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5.438541766999833</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:55.869467</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8.925904523000099</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8.818525701999988</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:32.012695</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>5.983637850999912</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:01:44.739194</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7.618121797999947</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>23.48196750900024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:53.808751</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>5.079524223999897</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:33.664262</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8.36608910599989</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>25.27678234199993</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:14.148640</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>5.138363368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:55.797678</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11.40064060200007</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>31.8274646990003</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:53.077229</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>4.872420081999962</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:13.641535</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9.389391888999853</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>16.47864217899996</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:00:47.633397</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>5.043298379999896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:33.726356</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11.82518559599998</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:43.041093</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>22.4294870220001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>24</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:01:45.874608</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6.761747573999855</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:48.861147</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.515839329000073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:43.041093</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>18.57232908700007</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:36.890543</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>9.825238174000106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:04:07.839846</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8.441311799999994</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:53.407568</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.848066668999991</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:11.684660</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>5.066058865999821</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:29.785815</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>5.245630450999897</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:47.166331</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>5.119595580000123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:04:06.128020</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>4.991242043000057</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J30" s="1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="D31" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="I31" s="1" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D32" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="I32" s="1" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="D33" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>121.99</t>
+        </is>
+      </c>
+      <c r="I33" s="1" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C35" s="1" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+      <c r="D35" s="1" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:02.453960</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:33.875698</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:34.089488</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:55.449246</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:00:51.848707</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:47.718613</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 18 to be added to database</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:18:49.273634</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5070&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:18:59.407894</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5250&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:09.531368</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f59d0&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:11.889756</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5640&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:21.103989</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f68a0&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.606531</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Not calibrated</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:47.325573</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:47.326598</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:59.759749</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:59.760986</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.679916</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:48:57.969178</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:48:57.970312</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.813379</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:17.992852</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:09.918914</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:09.920286</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:21.985788</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:21.986828</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:32.865956</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:32.870807</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:44.170156</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:44.171159</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:01.851805</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:01.853080</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B72" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7.62-8.23</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>8.23-8.85</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>8.85-9.46</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>9.46-10.07</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10.07-10.69</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10.69-11.30</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>11.30-11.92</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>11.92-12.53</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12.53-13.14</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13.14-13.76</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B84" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>8.82-20.14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20.14-31.45</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>31.45-42.77</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>42.77-54.09</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>54.09-65.41</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>65.41-76.72</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>76.72-88.04</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>88.04-99.36</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>99.36-110.67</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>110.67-121.99</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4.53-5.15</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5.15-5.76</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5.76-6.38</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6.38-7.00</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7.00-7.61</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7.61-8.23</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>8.23-8.85</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>8.85-9.46</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9.46-10.08</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10.08-10.70</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107"/>
+    <row r="108">
+      <c r="A108" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-07-31 20:00</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
@@ -11019,6 +14185,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -11036,6 +14207,11 @@
           <t>Package height when sagging is too high. Measured 209 mm</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -11053,6 +14229,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -11070,6 +14251,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -11087,6 +14273,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -11104,6 +14295,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -11121,6 +14317,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -11138,6 +14339,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -11155,6 +14361,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -11172,6 +14383,11 @@
           <t>Failed to find placement for package with ID 5</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -11189,6 +14405,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -11206,6 +14427,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -11223,6 +14449,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -11240,6 +14471,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -11257,6 +14493,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11274,6 +14515,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11291,6 +14537,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11308,6 +14559,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11325,6 +14581,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11342,6 +14603,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -11359,6 +14625,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -11376,6 +14647,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -11393,6 +14669,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -11410,6 +14691,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11427,6 +14713,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11444,6 +14735,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11461,6 +14757,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11478,6 +14779,11 @@
           <t>Failed to extract address: Internal Server Error</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11495,6 +14801,11 @@
           <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11512,6 +14823,11 @@
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -11527,6 +14843,11 @@
       <c r="C57" t="inlineStr">
         <is>
           <t>Failed to extract address: HTTPConnectionPool(host='localhost', port=8089): Read timed out. (read timeout=15)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
         </is>
       </c>
     </row>
@@ -13609,6 +16930,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -13626,6 +16952,11 @@
           <t>Package length is too long. Measured 447 mm</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -13643,6 +16974,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -13660,6 +16996,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -13677,6 +17018,11 @@
           <t>Package length is too long. Measured 409 mm</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13694,6 +17040,11 @@
           <t>Package length is too long. Measured 406 mm</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13711,6 +17062,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13728,6 +17084,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13745,6 +17106,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13762,6 +17128,11 @@
           <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13779,6 +17150,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -13796,6 +17172,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -13813,6 +17194,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -13830,6 +17216,11 @@
           <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -13847,6 +17238,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -13864,6 +17260,11 @@
           <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -13881,6 +17282,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -13898,6 +17304,11 @@
           <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -13915,6 +17326,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -13932,6 +17348,11 @@
           <t>Failed to find placement for package with ID 8</t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -13949,6 +17370,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -13966,6 +17392,11 @@
           <t>Package height when sagging is too high. Measured 200 mm</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -13983,6 +17414,11 @@
           <t>Package height when sagging is too high. Measured 210 mm</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -14000,6 +17436,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -14017,6 +17458,11 @@
           <t>Failed to find placement for package with ID 21</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -14034,6 +17480,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -14051,6 +17502,11 @@
           <t>Package length is too long. Measured 424 mm</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -14068,6 +17524,11 @@
           <t>Package length is too long. Measured 423 mm</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -14085,6 +17546,11 @@
           <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -14102,6 +17568,11 @@
           <t>Package height is too high. Measured 205 mm</t>
         </is>
       </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -14119,6 +17590,11 @@
           <t>Failed to find placement for package with ID 32</t>
         </is>
       </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -14136,6 +17612,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -14153,6 +17634,11 @@
           <t>No contours found</t>
         </is>
       </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -14170,6 +17656,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -14187,6 +17678,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -14204,6 +17700,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -14219,6 +17720,11 @@
       <c r="C92" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
     </row>
@@ -15506,6 +19012,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -15523,6 +19034,11 @@
           <t>Failed to find placement for package with ID 7</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -15540,6 +19056,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -15557,6 +19078,11 @@
           <t>Error message not found</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Unknown: No Error Message</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -15574,6 +19100,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -15591,6 +19122,11 @@
           <t>Package height when sagging is too high. Measured 277 mm</t>
         </is>
       </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -15608,6 +19144,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -15625,6 +19166,11 @@
           <t>Package length is too long. Measured 403 mm</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -15640,6 +19186,11 @@
       <c r="C35" t="inlineStr">
         <is>
           <t>Package length is too long. Measured 404 mm</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
@@ -17746,6 +21297,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -17763,6 +21319,11 @@
           <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -17780,6 +21341,11 @@
           <t>Failed to pick and raise</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -17797,6 +21363,11 @@
           <t>Failed to find placement for package with ID 11</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -17814,6 +21385,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -17831,6 +21407,11 @@
           <t>Package height is too high. Measured 204 mm</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -17848,6 +21429,11 @@
           <t>Package length is too long. Measured 414 mm</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -17865,6 +21451,11 @@
           <t>Failed to find placement for package with ID 37</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -17882,6 +21473,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -17899,6 +21495,11 @@
           <t>Package length is too long. Measured 410 mm</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -17916,6 +21517,11 @@
           <t>Failed to find placement for package with ID 38</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -17933,6 +21539,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -17950,6 +21561,11 @@
           <t>No contours found</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -17967,6 +21583,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -17981,7 +21602,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -18001,6 +21627,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -18018,6 +21649,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -18035,6 +21671,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -18052,6 +21693,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -18069,6 +21715,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18086,6 +21737,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18101,6 +21757,11 @@
       <c r="C71" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
     </row>
@@ -20077,6 +23738,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -20094,6 +23760,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -20111,6 +23782,11 @@
           <t>Package length is too long. Measured 438 mm</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -20128,6 +23804,11 @@
           <t>Package length is too long. Measured 411 mm</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -20145,6 +23826,11 @@
           <t>No contours found</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -20162,6 +23848,11 @@
           <t>Failed to find packages with IDs: [10]</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -20179,6 +23870,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -20193,7 +23889,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -20213,6 +23914,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -20230,6 +23936,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -20247,6 +23958,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -20264,6 +23980,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -20281,6 +24002,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -20298,6 +24024,11 @@
           <t>Package height when sagging is too high. Measured 192 mm</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -20315,6 +24046,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -20332,6 +24068,11 @@
           <t>Package height when sagging is too high. Measured 285 mm</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -20349,6 +24090,11 @@
           <t>Package height is too high. Measured 215 mm</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -20366,6 +24112,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -20383,6 +24134,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -20400,6 +24156,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -20417,6 +24178,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -20434,6 +24200,11 @@
           <t>Failed to find packages with IDs: [9]</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -20451,6 +24222,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -20465,7 +24241,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -20485,6 +24266,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -20502,6 +24288,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -20516,7 +24307,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -20534,6 +24330,11 @@
       <c r="C69" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
     </row>
@@ -22517,6 +26318,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -22534,6 +26340,11 @@
           <t>No contour found</t>
         </is>
       </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -22551,6 +26362,11 @@
           <t>Package height when sagging is too high. Measured 201 mm</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -22568,6 +26384,11 @@
           <t>Failed to find placement for package with ID 9</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -22585,6 +26406,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -22602,6 +26428,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -22619,6 +26450,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -22636,6 +26472,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -22653,6 +26494,11 @@
           <t>Package height is too high. Measured 258 mm</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -22670,6 +26516,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -22687,6 +26538,11 @@
           <t>Failed to find placement for package with ID 16</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -22704,6 +26560,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -22721,6 +26582,11 @@
           <t>Package height is too high. Measured 200 mm</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -22738,6 +26604,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -22755,6 +26626,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -22772,6 +26648,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -22789,6 +26670,11 @@
           <t>Failed to extract address using GPT query</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Vision: Address Extraction Failed</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -22806,6 +26692,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -22823,6 +26714,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -22840,6 +26736,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -22857,6 +26758,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -22874,6 +26780,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -22891,6 +26802,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -22905,7 +26821,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -22925,6 +26846,11 @@
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -22942,6 +26868,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -22956,7 +26887,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -22974,6 +26910,11 @@
       <c r="C75" t="inlineStr">
         <is>
           <t>Failed in attempt to pick and place: Failed to pick and place</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
     </row>
@@ -25364,6 +29305,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -25381,6 +29327,11 @@
           <t>Package height when sagging is too high. Measured 190 mm</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -25398,6 +29349,11 @@
           <t>Failed to find placement for package with ID 22</t>
         </is>
       </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -25415,6 +29371,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -25432,6 +29393,11 @@
           <t>Failed to find placement for package with ID 22</t>
         </is>
       </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -25449,6 +29415,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -25466,6 +29437,11 @@
           <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -25483,6 +29459,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -25500,6 +29481,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -25517,6 +29503,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -25532,6 +29523,11 @@
       <c r="C65" t="inlineStr">
         <is>
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
         </is>
       </c>
     </row>
@@ -27712,6 +31708,11 @@
           <t>Error Message</t>
         </is>
       </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -27727,6 +31728,11 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>Package height is too high. Measured 211 mm</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
@@ -27748,6 +31754,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -27767,6 +31778,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -27786,6 +31802,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -27805,6 +31826,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -27824,6 +31850,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -27839,6 +31870,11 @@
       <c r="C57" t="inlineStr">
         <is>
           <t>Error: HTTPConnectionPool(host='localhost', port=8088): Max retries exceeded with url: /find_label (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0xffff627198e0&gt;: Failed to establish a new connection: [Errno 111] Connection refused'))</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
         </is>
       </c>
     </row>
@@ -27860,6 +31896,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -27875,6 +31916,11 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>Error: HTTPConnectionPool(host='localhost', port=8088): Max retries exceeded with url: /find_label (Caused by NewConnectionError('&lt;urllib3.connection.HTTPConnection object at 0xffff62758950&gt;: Failed to establish a new connection: [Errno 111] Connection refused'))</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
         </is>
       </c>
     </row>
@@ -27896,6 +31942,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -27915,6 +31966,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -27934,6 +31990,11 @@
  Message:Internal Server Error</t>
         </is>
       </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Vision: Server Error</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -27951,6 +32012,11 @@
           <t>Error: HTTPConnectionPool(host='localhost', port=8088): Read timed out. (read timeout=5)</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -27968,6 +32034,11 @@
           <t>Failed to find placement for package with ID 4</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -27985,6 +32056,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -28002,6 +32078,11 @@
           <t>Cannot upload, failed to find package with ID 6</t>
         </is>
       </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -28019,6 +32100,11 @@
           <t>Failed to find placement for package with ID 6</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -28036,6 +32122,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -28053,6 +32144,11 @@
           <t>Cannot upload, failed to find package with ID 6</t>
         </is>
       </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -28070,6 +32166,11 @@
           <t>Failed to find placement for package with ID 28</t>
         </is>
       </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -28087,6 +32188,11 @@
           <t>Unable to find a place for the package</t>
         </is>
       </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -28104,6 +32210,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -28118,7 +32229,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Error message not found</t>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
         </is>
       </c>
     </row>
@@ -28138,6 +32254,11 @@
           <t>Failed to execute pick and place operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -28155,6 +32276,11 @@
           <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
         </is>
       </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -28172,6 +32298,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -28189,6 +32320,11 @@
           <t>Failed to find package</t>
         </is>
       </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -28206,6 +32342,11 @@
           <t>Package length is too long. Measured 493 mm</t>
         </is>
       </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Physical Constraints: Package Dimension Error</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -28223,6 +32364,11 @@
           <t>Cannot upload, failed to find package with ID 31</t>
         </is>
       </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -28240,6 +32386,11 @@
           <t>Cannot upload, failed to find package with ID 31</t>
         </is>
       </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Vision: Package Not Found</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -28257,6 +32408,11 @@
           <t>Vacuum not achieved, aborting pick and raise</t>
         </is>
       </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -28274,6 +32430,11 @@
           <t>Package height when sagging is too high. Measured 785 mm</t>
         </is>
       </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Uncategorized Error</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -28291,6 +32452,11 @@
           <t>Failed to execute pick and raise operation: Waypoint execution failed</t>
         </is>
       </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -28306,6 +32472,11 @@
       <c r="C84" t="inlineStr">
         <is>
           <t>Failed to pick and raise</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Raise Execution Failed</t>
         </is>
       </c>
     </row>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -18,8 +18,9 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 8" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 9" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Error Summary" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Day 12" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -193,12 +194,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$12</f>
+              <f>'Master Summary'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$C$2:$C$12</f>
+              <f>'Master Summary'!$C$2:$C$13</f>
             </numRef>
           </val>
         </ser>
@@ -225,12 +226,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$12</f>
+              <f>'Master Summary'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$D$2:$D$12</f>
+              <f>'Master Summary'!$D$2:$D$13</f>
             </numRef>
           </val>
         </ser>
@@ -257,12 +258,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$12</f>
+              <f>'Master Summary'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$E$2:$E$12</f>
+              <f>'Master Summary'!$E$2:$E$13</f>
             </numRef>
           </val>
         </ser>
@@ -1105,12 +1106,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'Master Summary'!$A$2:$A$12</f>
+              <f>'Master Summary'!$A$2:$A$13</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Master Summary'!$J$2:$J$12</f>
+              <f>'Master Summary'!$J$2:$J$13</f>
             </numRef>
           </val>
         </ser>
@@ -1142,7 +1143,7 @@
           </marker>
           <val>
             <numRef>
-              <f>'Master Summary'!$K$2:$K$12</f>
+              <f>'Master Summary'!$K$2:$K$13</f>
             </numRef>
           </val>
         </ser>
@@ -3344,6 +3345,307 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 12'!B83</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 12'!$A$84:$A$93</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 12'!$B$84:$B$93</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 12'!B95</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 12'!$A$96:$A$105</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 12'!$B$96:$B$105</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 12'!B107</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 12'!$A$108:$A$117</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 12'!$B$108:$B$117</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Hourly Package Retrieval Throughput</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Day 12'!B119</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Day 12'!$A$120:$A$121</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Day 12'!$B$120:$B$121</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Hour of Day</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Packages Retrieved</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
@@ -3760,7 +4062,7 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -3782,7 +4084,7 @@
     <from>
       <col>9</col>
       <colOff>0</colOff>
-      <row>13</row>
+      <row>14</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -4062,6 +4364,99 @@
       <col>4</col>
       <colOff>0</colOff>
       <row>107</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="4" name="Chart 4"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>82</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>94</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>106</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="3" name="Chart 3"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>118</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -5093,7 +5488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5639,6 +6034,49 @@
       </c>
       <c r="M12" t="n">
         <v>0.6353273230555555</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="D13" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+      <c r="G13" t="n">
+        <v>49</v>
+      </c>
+      <c r="H13" t="n">
+        <v>20</v>
+      </c>
+      <c r="I13" t="n">
+        <v>20</v>
+      </c>
+      <c r="J13" t="n">
+        <v>26.28</v>
+      </c>
+      <c r="K13" t="n">
+        <v>36</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.4538617616666667</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.7609602211111111</v>
       </c>
     </row>
   </sheetData>
@@ -10778,7 +11216,2405 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:N110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Package ID</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Event Label</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:52:05.313905</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>8.182673329000067</v>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:20:35.862730</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 7)</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>21.59020810199991</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:52:06.080425</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>7.479754869000089</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:12.257127</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10.867609829</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:24:09.670379</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 6)</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>22.36297699099998</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:09.689362</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>6.665960324000025</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:35.026553</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11.24606159500001</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:24:09.670379</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 12)</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>25.87957885000003</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:31.383484</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>5.832205151999915</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:58.807254</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10.270960296</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 15)</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>17.74581296299993</v>
+      </c>
+      <c r="G5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:53:54.739108</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>4.749096925999993</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:20.349350</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>12.16076136699996</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 19)</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>121.992085478</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:15.543080</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>5.508547365000027</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:42.530848</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>12.32444077000002</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 8)</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>22.58552326100016</v>
+      </c>
+      <c r="G7" t="n">
+        <v>8</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:37.283011</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>5.18061201699993</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:03.804682</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>12.87177802899998</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 9)</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>18.99289221399999</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:54:57.228460</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>4.745874447999995</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:22.303564</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>10.60509038600003</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 5)</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>23.16249946200014</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:19.262929</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>6.111741474000041</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:51.476868</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>11.64992298200002</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:40:35.473724</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 3)</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>30.70044688500002</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:55:52.263790</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10.69649684700005</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:14.492595</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>12.86208218700017</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 10)</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>22.4478273740001</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:08.135506</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>5.133083541000133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:37.740718</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>13.75674174899996</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 17)</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>16.8236389130002</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:31.172819</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>5.505217454999865</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:00.452220</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>12.27530641699991</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:42:40.556411</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 1)</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>22.85432056099989</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:56:55.215879</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>5.683165508999991</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:18.590869</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>8.848506265999958</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>22.5046317880001</v>
+      </c>
+      <c r="G14" t="n">
+        <v>11</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:16.145389</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>4.531118533999916</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:39.614847</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>7.969179949999898</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>9.344545514999936</v>
+      </c>
+      <c r="G15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:57:39.843456</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>6.835540583000011</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:15.457116</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>9.415472778999856</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 11)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>14.41689415700012</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:00.450435</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>5.438541766999833</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:55.869467</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>8.925904523000099</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 13)</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>8.818525701999988</v>
+      </c>
+      <c r="G17" t="n">
+        <v>13</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:32.012695</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>5.983637850999912</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:01:44.739194</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>7.618121797999947</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 2)</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>23.48196750900024</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:53.808751</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>5.079524223999897</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:33.664262</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>8.36608910599989</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 21)</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>25.27678234199993</v>
+      </c>
+      <c r="G19" t="n">
+        <v>21</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:14.148640</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>5.138363368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:55.797678</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>11.40064060200007</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 23)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>31.8274646990003</v>
+      </c>
+      <c r="G20" t="n">
+        <v>23</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:59:53.077229</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>4.872420081999962</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:13.641535</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>9.389391888999853</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 26)</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>16.47864217899996</v>
+      </c>
+      <c r="G21" t="n">
+        <v>26</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:00:47.633397</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>5.043298379999896</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:33.726356</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>11.82518559599998</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:43.041093</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 24)</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>22.4294870220001</v>
+      </c>
+      <c r="G22" t="n">
+        <v>24</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:01:45.874608</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>6.761747573999855</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:48.861147</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>8.515839329000073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:43.041093</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Individual Retrieval (ID: 25)</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>18.57232908700007</v>
+      </c>
+      <c r="G23" t="n">
+        <v>25</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:36.890543</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>9.825238174000106</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:04:07.839846</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8.441311799999994</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:02:53.407568</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>6.848066668999991</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:11.684660</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>5.066058865999821</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:29.785815</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>5.245630450999897</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:47.166331</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>5.119595580000123</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:04:06.128020</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>4.991242043000057</v>
+      </c>
+    </row>
+    <row r="29"/>
+    <row r="30">
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Time (s)</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Minimum</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>121.99</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Maximum</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>Error Type</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>Error Message</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Normalized Category</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:02.453960</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:33.875698</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Add Package Callback</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Failed to find placement for package with ID 15</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:34.089488</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-07-31T18:58:55.449246</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:00:51.848707</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-07-31T19:03:47.718613</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 18 to be added to database</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:18:49.273634</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5070&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:18:59.407894</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5250&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:09.531368</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f59d0&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:11.889756</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5640&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:19:21.103989</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Check Cloud Addresses</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f68a0&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Vision: Connection Error</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.606531</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Not calibrated</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:31:11.622776</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:47.325573</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:47.326598</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:59.759749</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:33:59.760986</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.679916</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:43:49.688846</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:48:57.969178</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:48:57.970312</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.813379</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:49:06.824695</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:17.992852</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:54:18.003129</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:09.918914</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:09.920286</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:21.985788</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:21.986828</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:32.865956</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:32.870807</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:44.170156</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:57:44.171159</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:01.851805</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-07-31T20:58:01.853080</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved (inferred from callback failure)</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="71"/>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7.62-8.23</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>8.23-8.85</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>8.85-9.46</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>9.46-10.07</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>10.07-10.69</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>10.69-11.30</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>11.30-11.92</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>11.92-12.53</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12.53-13.14</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>13.14-13.76</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>8.82-20.14</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>20.14-31.45</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>31.45-42.77</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>42.77-54.09</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>54.09-65.41</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>65.41-76.72</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>76.72-88.04</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>88.04-99.36</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>99.36-110.67</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>110.67-121.99</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95"/>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>4.53-5.15</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>5.15-5.76</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>5.76-6.38</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>6.38-7.00</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7.00-7.61</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7.61-8.23</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>8.23-8.85</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>8.85-9.46</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>9.46-10.08</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>10.08-10.70</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107"/>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-07-31 20:00</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110"/>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11186,18 +14022,52 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-08-05</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11260,7 +14130,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-31T18:52:05.313905</t>
+          <t>2025-08-05T20:18:05.879677</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -11269,27 +14139,27 @@
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>8.182673329000067</v>
+        <v>9.899127205000696</v>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-31T20:20:35.862730</t>
+          <t>2025-08-05T20:40:16.082902</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 7)</t>
+          <t>Individual Retrieval (ID: 4)</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>21.59020810199991</v>
+        <v>17.48499259299933</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>2025-07-31T18:52:06.080425</t>
+          <t>2025-08-05T20:18:08.043584</t>
         </is>
       </c>
       <c r="J2" s="2" t="inlineStr">
@@ -11298,13 +14168,13 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>7.479754869000089</v>
+        <v>8.07357302499986</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:12.257127</t>
+          <t>2025-08-05T20:18:26.383569</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -11313,27 +14183,27 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10.867609829</v>
+        <v>8.770525375999568</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-31T20:24:09.670379</t>
+          <t>2025-08-05T20:41:22.770394</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 6)</t>
+          <t>Individual Retrieval (ID: 7)</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22.36297699099998</v>
+        <v>21.54908683999929</v>
       </c>
       <c r="G3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:09.689362</t>
+          <t>2025-08-05T20:18:26.790471</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -11342,13 +14212,13 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>6.665960324000025</v>
+        <v>6.292792233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:35.026553</t>
+          <t>2025-08-05T20:18:45.117989</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -11357,27 +14227,27 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.24606159500001</v>
+        <v>8.204267203998825</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-31T20:24:09.670379</t>
+          <t>2025-08-05T20:43:37.471630</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 12)</t>
+          <t>Individual Retrieval (ID: 14)</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>25.87957885000003</v>
+        <v>22.16671087699979</v>
       </c>
       <c r="G4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:31.383484</t>
+          <t>2025-08-05T20:18:45.292906</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -11386,13 +14256,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>5.832205151999915</v>
+        <v>6.319692589000624</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:58.807254</t>
+          <t>2025-08-05T20:19:05.955368</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -11401,27 +14271,27 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10.270960296</v>
+        <v>8.793453161000798</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-07-31T20:31:11.622776</t>
+          <t>2025-08-05T20:43:37.471630</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 15)</t>
+          <t>Individual Retrieval (ID: 9)</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>17.74581296299993</v>
+        <v>24.91749939799956</v>
       </c>
       <c r="G5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-07-31T18:53:54.739108</t>
+          <t>2025-08-05T20:19:05.080796</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -11430,13 +14300,13 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>4.749096925999993</v>
+        <v>5.595145381999828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-07-31T18:54:20.349350</t>
+          <t>2025-08-05T20:19:27.400929</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -11445,27 +14315,27 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12.16076136699996</v>
+        <v>11.64091171200016</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-07-31T20:31:11.622776</t>
+          <t>2025-08-05T20:45:22.758663</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 19)</t>
+          <t>Individual Retrieval (ID: 15)</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>121.992085478</v>
+        <v>22.50230584999917</v>
       </c>
       <c r="G6" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-07-31T18:54:15.543080</t>
+          <t>2025-08-05T20:19:24.510141</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -11474,13 +14344,13 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>5.508547365000027</v>
+        <v>6.545957193999129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-07-31T18:54:42.530848</t>
+          <t>2025-08-05T20:19:43.623831</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -11489,27 +14359,27 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>12.32444077000002</v>
+        <v>11.40841772299973</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-07-31T20:40:35.473724</t>
+          <t>2025-08-05T20:47:28.122014</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 8)</t>
+          <t>Individual Retrieval (ID: 3)</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>22.58552326100016</v>
+        <v>24.68489571400096</v>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-07-31T18:54:37.283011</t>
+          <t>2025-08-05T20:19:40.817657</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -11518,13 +14388,13 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>5.18061201699993</v>
+        <v>6.319974563000869</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-07-31T18:55:03.804682</t>
+          <t>2025-08-05T20:20:04.918811</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -11533,27 +14403,27 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>12.87177802899998</v>
+        <v>15.35731751999992</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-07-31T20:40:35.473724</t>
+          <t>2025-08-05T20:52:29.164776</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 9)</t>
+          <t>Individual Retrieval (ID: 1)</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>18.99289221399999</v>
+        <v>14.68379965199892</v>
       </c>
       <c r="G8" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-07-31T18:54:57.228460</t>
+          <t>2025-08-05T20:19:57.405787</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -11562,13 +14432,13 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>4.745874447999995</v>
+        <v>5.436458266000045</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-07-31T18:55:22.303564</t>
+          <t>2025-08-05T20:20:23.717094</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -11577,27 +14447,27 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.60509038600003</v>
+        <v>11.64684923499954</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-07-31T20:40:35.473724</t>
+          <t>2025-08-05T20:52:29.164776</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 5)</t>
+          <t>Individual Retrieval (ID: 2)</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>23.16249946200014</v>
+        <v>175.3916782840006</v>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-07-31T18:55:19.262929</t>
+          <t>2025-08-05T20:20:19.865462</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -11606,13 +14476,13 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>6.111741474000041</v>
+        <v>5.821481515000414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-07-31T18:55:51.476868</t>
+          <t>2025-08-05T20:21:14.410263</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -11621,27 +14491,27 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>11.64992298200002</v>
+        <v>11.30005176000122</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-07-31T20:40:35.473724</t>
+          <t>2025-08-05T20:54:56.261798</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 3)</t>
+          <t>Individual Retrieval (ID: 5)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>30.70044688500002</v>
+        <v>21.85361432399986</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-07-31T18:55:52.263790</t>
+          <t>2025-08-05T20:21:11.044839</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -11650,13 +14520,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>10.69649684700005</v>
+        <v>5.556209398000647</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-07-31T18:56:14.492595</t>
+          <t>2025-08-05T20:22:22.357992</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -11665,27 +14535,27 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>12.86208218700017</v>
+        <v>11.89788108399989</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-07-31T20:42:40.556411</t>
+          <t>2025-08-05T20:56:47.385942</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 10)</t>
+          <t>Individual Retrieval (ID: 13)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22.4478273740001</v>
+        <v>21.63818869100032</v>
       </c>
       <c r="G11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2025-07-31T18:56:08.135506</t>
+          <t>2025-08-05T20:22:20.032438</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -11694,13 +14564,13 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>5.133083541000133</v>
+        <v>7.07643962900147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-07-31T18:56:37.740718</t>
+          <t>2025-08-05T20:22:41.887945</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -11709,27 +14579,27 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>13.75674174899996</v>
+        <v>13.32860805400014</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-07-31T20:42:40.556411</t>
+          <t>2025-08-05T20:56:47.385942</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 17)</t>
+          <t>Individual Retrieval (ID: 10)</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16.8236389130002</v>
+        <v>18.6112710139987</v>
       </c>
       <c r="G12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2025-07-31T18:56:31.172819</t>
+          <t>2025-08-05T20:22:39.648377</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -11738,13 +14608,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>5.505217454999865</v>
+        <v>9.131763018000129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-07-31T18:57:00.452220</t>
+          <t>2025-08-05T20:23:03.258316</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -11753,27 +14623,27 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>12.27530641699991</v>
+        <v>15.39531679700121</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-07-31T20:42:40.556411</t>
+          <t>2025-08-05T20:59:03.205526</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 1)</t>
+          <t>Individual Retrieval (ID: 11)</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>22.85432056099989</v>
+        <v>21.54640693500005</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2025-07-31T18:56:55.215879</t>
+          <t>2025-08-05T20:22:57.176540</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -11782,13 +14652,13 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>5.683165508999991</v>
+        <v>7.135990555001626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-07-31T18:57:18.590869</t>
+          <t>2025-08-05T20:23:30.912467</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -11797,27 +14667,27 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.848506265999958</v>
+        <v>9.097083806000228</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-07-31T20:43:49.688846</t>
+          <t>2025-08-05T20:59:03.205526</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
+          <t>Individual Retrieval (ID: 6)</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>22.5046317880001</v>
+        <v>24.0955338269996</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2025-07-31T18:57:16.145389</t>
+          <t>2025-08-05T20:23:52.899792</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -11826,13 +14696,13 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>4.531118533999916</v>
+        <v>10.24282079799923</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-07-31T18:57:39.614847</t>
+          <t>2025-08-05T20:24:21.519840</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -11841,27 +14711,27 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.969179949999898</v>
+        <v>11.73498633199961</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-07-31T20:43:49.688846</t>
+          <t>2025-08-05T21:01:46.620395</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 13)</t>
+          <t>Individual Retrieval (ID: 18)</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>9.344545514999936</v>
+        <v>18.42490758499844</v>
       </c>
       <c r="G15" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2025-07-31T18:57:39.843456</t>
+          <t>2025-08-05T20:24:18.390355</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -11870,13 +14740,13 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>6.835540583000011</v>
+        <v>6.388964319001389</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-07-31T18:59:15.457116</t>
+          <t>2025-08-05T20:24:44.518497</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -11885,27 +14755,27 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.415472778999856</v>
+        <v>14.99418661699929</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-07-31T20:49:06.824695</t>
+          <t>2025-08-05T21:04:44.268302</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 11)</t>
+          <t>Individual Retrieval (ID: 27)</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>14.41689415700012</v>
+        <v>19.56348221100052</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2025-07-31T18:58:00.450435</t>
+          <t>2025-08-05T20:24:37.733026</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -11914,13 +14784,13 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>5.438541766999833</v>
+        <v>6.231228169999667</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-07-31T18:59:55.869467</t>
+          <t>2025-08-05T20:25:05.324328</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -11929,27 +14799,27 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.925904523000099</v>
+        <v>11.45770292400084</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-07-31T20:49:06.824695</t>
+          <t>2025-08-05T21:04:44.268302</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 13)</t>
+          <t>Individual Retrieval (ID: 17)</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8.818525701999988</v>
+        <v>20.45341480299976</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2025-07-31T18:58:32.012695</t>
+          <t>2025-08-05T20:25:03.198067</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -11958,13 +14828,13 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>5.983637850999912</v>
+        <v>6.739148372998898</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-07-31T19:01:44.739194</t>
+          <t>2025-08-05T20:25:24.605305</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -11973,27 +14843,27 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.618121797999947</v>
+        <v>11.49045630099863</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:18.003129</t>
+          <t>2025-08-05T21:09:43.641370</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 2)</t>
+          <t>Individual Retrieval (ID: 16)</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>23.48196750900024</v>
+        <v>17.96605593799904</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2025-07-31T18:58:53.808751</t>
+          <t>2025-08-05T20:25:21.452015</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -12002,13 +14872,13 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>5.079524223999897</v>
+        <v>5.95761294300064</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-07-31T19:02:33.664262</t>
+          <t>2025-08-05T20:28:22.095895</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -12017,27 +14887,27 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>8.36608910599989</v>
+        <v>11.61431213700052</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:18.003129</t>
+          <t>2025-08-05T21:15:16.127205</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 21)</t>
+          <t>Individual Retrieval (ID: 23)</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>25.27678234199993</v>
+        <v>18.52303057300014</v>
       </c>
       <c r="G19" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2025-07-31T18:59:14.148640</t>
+          <t>2025-08-05T20:25:40.199811</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -12046,13 +14916,13 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>5.138363368</v>
+        <v>5.674239808999118</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-07-31T19:02:55.797678</t>
+          <t>2025-08-05T20:29:36.936473</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -12061,27 +14931,27 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>11.40064060200007</v>
+        <v>9.720442099000138</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:18.003129</t>
+          <t>2025-08-05T21:23:19.524136</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 23)</t>
+          <t>Individual Retrieval (ID: 25)</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>31.8274646990003</v>
+        <v>20.22250548500051</v>
       </c>
       <c r="G20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2025-07-31T18:59:53.077229</t>
+          <t>2025-08-05T20:26:07.668731</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -12090,13 +14960,13 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>4.872420081999962</v>
+        <v>5.647330752999551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:13.641535</t>
+          <t>2025-08-05T20:30:01.382067</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -12105,27 +14975,27 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.389391888999853</v>
+        <v>9.604317101999186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:18.003129</t>
+          <t>2025-08-05T21:25:55.539698</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Individual Retrieval (ID: 26)</t>
+          <t>Individual Retrieval (ID: 28)</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>16.47864217899996</v>
+        <v>22.74772128299992</v>
       </c>
       <c r="G21" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2025-07-31T19:00:47.633397</t>
+          <t>2025-08-05T20:26:30.508587</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -12134,13 +15004,13 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>5.043298379999896</v>
+        <v>10.50502652699834</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:33.726356</t>
+          <t>2025-08-05T20:31:48.131392</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -12149,27 +15019,11 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>11.82518559599998</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:58:43.041093</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 24)</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>22.4294870220001</v>
-      </c>
-      <c r="G22" t="n">
-        <v>24</v>
+        <v>11.31024256100136</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2025-07-31T19:01:45.874608</t>
+          <t>2025-08-05T20:27:26.917295</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -12178,13 +15032,13 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>6.761747573999855</v>
+        <v>6.962192474000403</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:48.861147</t>
+          <t>2025-08-05T20:32:19.554054</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -12193,27 +15047,11 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>8.515839329000073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:58:43.041093</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Individual Retrieval (ID: 25)</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>18.57232908700007</v>
-      </c>
-      <c r="G23" t="n">
-        <v>25</v>
+        <v>14.84423522199904</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2025-07-31T19:02:36.890543</t>
+          <t>2025-08-05T20:28:22.373953</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -12222,13 +15060,13 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>9.825238174000106</v>
+        <v>7.760980438000843</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-07-31T19:04:07.839846</t>
+          <t>2025-08-05T20:33:35.890684</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -12237,11 +15075,11 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>8.441311799999994</v>
+        <v>12.93702699299865</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2025-07-31T19:02:53.407568</t>
+          <t>2025-08-05T20:29:35.458127</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -12250,13 +15088,26 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>6.848066668999991</v>
+        <v>5.955612702000508</v>
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:34:08.787705</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>13.87757032199988</v>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:11.684660</t>
+          <t>2025-08-05T20:30:02.774665</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -12265,13 +15116,26 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5.066058865999821</v>
+        <v>8.765550809999695</v>
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:41:10.676112</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>12.25221857399993</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:29.785815</t>
+          <t>2025-08-05T20:31:49.738600</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -12280,13 +15144,26 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5.245630450999897</v>
+        <v>8.597320777000277</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:48:49.883339</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>10.63333490400009</v>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2025-07-31T19:03:47.166331</t>
+          <t>2025-08-05T20:32:13.876997</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -12295,13 +15172,26 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5.119595580000123</v>
+        <v>6.398504134000177</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:16.314934</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12.80691757599993</v>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2025-07-31T19:04:06.128020</t>
+          <t>2025-08-05T20:33:07.115348</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -12310,1066 +15200,1174 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>4.991242043000057</v>
-      </c>
-    </row>
-    <row r="29"/>
+        <v>6.536433524999666</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:39.373063</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13.20995126899993</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:33:36.281829</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>10.70732993599995</v>
+      </c>
+    </row>
     <row r="30">
-      <c r="B30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:59.526762</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>11.16511209300006</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:34:08.266951</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>11.29551465999975</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:52:21.670426</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>13.14674707099994</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:34:34.382272</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>7.769972435000454</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:41:12.260041</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>8.037508480000042</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:41:25.624592</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>7.442169731000149</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:48:50.954153</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>7.708878467999966</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:17.303279</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>9.609964588999901</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:33.411513</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>5.258262172000059</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:51:59.826321</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>8.61478493200002</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2025-08-05T23:52:18.098553</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Read Label Callback</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7.507499139999936</v>
+      </c>
+    </row>
+    <row r="39"/>
+    <row r="40">
+      <c r="B40" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E40" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J40" s="1" t="inlineStr">
         <is>
           <t>Time (s)</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>10.43</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>11.78</t>
+        </is>
+      </c>
+      <c r="D41" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>25.47</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>28.45</t>
+        </is>
+      </c>
+      <c r="I41" s="1" t="inlineStr">
         <is>
           <t>Average</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>7.62</t>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="D42" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>8.82</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>14.68</t>
+        </is>
+      </c>
+      <c r="I42" s="1" t="inlineStr">
         <is>
           <t>Minimum</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>13.76</t>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="D43" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>121.99</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>175.39</t>
+        </is>
+      </c>
+      <c r="I43" s="1" t="inlineStr">
         <is>
           <t>Maximum</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>10.70</t>
-        </is>
-      </c>
-    </row>
-    <row r="34"/>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="44"/>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>Timestamp</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="B45" s="1" t="inlineStr">
         <is>
           <t>Error Type</t>
         </is>
       </c>
-      <c r="C35" s="1" t="inlineStr">
+      <c r="C45" s="1" t="inlineStr">
         <is>
           <t>Error Message</t>
         </is>
       </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="D45" s="1" t="inlineStr">
         <is>
           <t>Normalized Category</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-07-31T18:58:02.453960</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Vision: Sag Height Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-07-31T18:58:33.875698</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Add Package Callback</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Failed to find placement for package with ID 15</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Packing: Placement Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-07-31T18:58:34.089488</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Unable to find a place for the package</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Packing: Placement Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-07-31T18:58:55.449246</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Vision: Sag Height Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-07-31T19:00:51.848707</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Conveyable Stow</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sag height was not found. Did package fully clear the platform?</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Vision: Sag Height Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-07-31T19:03:47.718613</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>OCR Callback</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>OCR timeout waiting for package 18 to be added to database</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Database: OCR Timeout</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:18:49.273634</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Check Cloud Addresses</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5070&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:18:59.407894</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Check Cloud Addresses</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5250&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:19:09.531368</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Check Cloud Addresses</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by ConnectTimeoutError(&lt;urllib3.connection.HTTPSConnection object at 0xffff841f59d0&gt;, 'Connection to cargo-robotics.com timed out. (connect timeout=10)'))</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-07-31T20:19:11.889756</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Check Cloud Addresses</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f5640&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Vision: Connection Error</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-07-31T20:19:21.103989</t>
+          <t>2025-08-05T20:21:35.085018</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Check Cloud Addresses</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Error querying server for packages: HTTPSConnectionPool(host='cargo-robotics.com', port=443): Max retries exceeded with url: /packages?secret=for_cargo_eyes_only&amp;uuids=b504d723-7eb1-4e5e-a1b8-f9a691a8b067,fd4c59eb-fe60-450a-aea3-d005117c26f5,5fb8ea92-ad04-4fd1-8bf3-7c66eb71fce7 (Caused by NewConnectionError('&lt;urllib3.connection.HTTPSConnection object at 0xffff841f68a0&gt;: Failed to establish a new connection: [Errno 113] No route to host'))</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Vision: Connection Error</t>
+          <t>Vision: Address Extraction Failed</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-07-31T20:31:11.606531</t>
+          <t>2025-08-05T20:21:39.623749</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Not calibrated</t>
+          <t>Failed to find placement for package with ID 10</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-07-31T20:31:11.622776</t>
+          <t>2025-08-05T20:21:39.674648</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-07-31T20:33:47.325573</t>
+          <t>2025-08-05T20:22:01.545635</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package length is too long. Measured 513 mm</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-07-31T20:33:47.326598</t>
+          <t>2025-08-05T20:23:32.825667</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Failed to extract address using GPT query</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Vision: Address Extraction Failed</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-07-31T20:33:59.759749</t>
+          <t>2025-08-05T20:23:54.785644</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find placement for package with ID 14</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-07-31T20:33:59.760986</t>
+          <t>2025-08-05T20:23:54.937148</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-07-31T20:43:49.679916</t>
+          <t>2025-08-05T20:25:44.584501</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-07-31T20:43:49.688846</t>
+          <t>2025-08-05T20:26:08.530828</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-07-31T20:48:57.969178</t>
+          <t>2025-08-05T20:26:27.063477</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-07-31T20:48:57.970312</t>
+          <t>2025-08-05T20:26:45.017335</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-07-31T20:49:06.813379</t>
+          <t>2025-08-05T20:27:03.019331</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Package height is too high. Measured 208 mm</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-07-31T20:49:06.824695</t>
+          <t>2025-08-05T20:27:28.853361</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Vision: Sag Height Not Found</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:17.992852</t>
+          <t>2025-08-05T20:27:47.909942</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+          <t>Package height is too high. Measured 187 mm</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-07-31T20:54:18.003129</t>
+          <t>2025-08-05T20:28:39.414632</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Retrieve Packages Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+          <t>Package length is too long. Measured 475 mm</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Motion: Pick/Place Execution Failed</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:09.918914</t>
+          <t>2025-08-05T20:28:53.359044</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package length is too long. Measured 476 mm</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:09.920286</t>
+          <t>2025-08-05T20:29:13.313194</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Package length is too long. Measured 477 mm</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:21.985788</t>
+          <t>2025-08-05T20:32:30.018569</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Package length is too long. Measured 465 mm</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:21.986828</t>
+          <t>2025-08-05T20:32:45.906935</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Package length is too long. Measured 458 mm</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Physical Constraints: Package Dimension Error</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:32.865956</t>
+          <t>2025-08-05T20:33:07.540483</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find placement for package with ID 27</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:32.870807</t>
+          <t>2025-08-05T20:33:07.568646</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:44.170156</t>
+          <t>2025-08-05T20:34:35.076984</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>Failed to find placement for package with ID 29</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-07-31T20:57:44.171159</t>
+          <t>2025-08-05T20:34:35.266908</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Conveyable Stow</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Unable to find a place for the package</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Packing: Placement Failure</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-07-31T20:58:01.851805</t>
+          <t>2025-08-05T20:35:10.382802</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Execute Pick and Raise</t>
+          <t>Read Label Callback</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Vacuum not achieved, aborting pick and raise</t>
+          <t>No contour found</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
+          <t>Vision: Package Not Found</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-07-31T20:58:01.853080</t>
+          <t>2025-08-05T20:35:14.783924</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Execute Pick and Place Callback</t>
+          <t>Add Package Callback</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Vacuum not achieved (inferred from callback failure)</t>
+          <t>Failed to find placement for package with ID 30</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>End Effector: Vacuum Failure</t>
-        </is>
-      </c>
-    </row>
-    <row r="71"/>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:35:15.248923</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Unable to find a place for the package</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Packing: Placement Failure</t>
+        </is>
+      </c>
+    </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B72" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-08-05T20:37:34.427070</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 29 to be added to database</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7.62-8.23</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>3</v>
+          <t>2025-08-05T20:38:10.566821</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 30 to be added to database</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8.23-8.85</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>3</v>
+          <t>2025-08-05T20:56:44.008674</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>8.85-9.46</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>4</v>
+          <t>2025-08-05T20:56:46.878495</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>9.46-10.07</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
+          <t>2025-08-05T20:56:46.935471</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Execute Pick and Place Callback</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Failed to execute pick and place operation: Waypoint execution failed</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>10.07-10.69</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>2</v>
+          <t>2025-08-05T20:56:47.385942</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Retrieve Packages Callback</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Failed in attempt to pick and place. Failed to perform action: </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Motion: Pick/Place Execution Failed</t>
+        </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>10.69-11.30</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>2</v>
+          <t>2025-08-05T23:41:32.387491</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>11.30-11.92</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>3</v>
+          <t>2025-08-05T23:41:34.039562</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Execute Pick and Raise</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Vacuum not achieved, aborting pick and raise</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>End Effector: Vacuum Failure</t>
+        </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>11.92-12.53</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>3</v>
+          <t>2025-08-05T23:41:34.216264</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Conveyable Stow</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Sag height was not found. Did package fully clear the platform?</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Vision: Sag Height Not Found</t>
+        </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>12.53-13.14</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>13.14-13.76</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83"/>
+          <t>2025-08-05T23:44:25.639851</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>OCR Callback</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>OCR timeout waiting for package 35 to be added to database</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Database: OCR Timeout</t>
+        </is>
+      </c>
+    </row>
+    <row r="82"/>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B84" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>8.20-8.92</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>8.82-20.14</t>
+          <t>8.92-9.64</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20.14-31.45</t>
+          <t>9.64-10.36</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>31.45-42.77</t>
+          <t>10.36-11.08</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -13379,47 +16377,47 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>42.77-54.09</t>
+          <t>11.08-11.80</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>54.09-65.41</t>
+          <t>11.80-12.52</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>65.41-76.72</t>
+          <t>12.52-13.24</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>76.72-88.04</t>
+          <t>13.24-13.96</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>88.04-99.36</t>
+          <t>13.96-14.68</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -13429,90 +16427,90 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>99.36-110.67</t>
+          <t>14.68-15.40</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>110.67-121.99</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B95" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Time Bins (s)</t>
-        </is>
-      </c>
-      <c r="B96" s="1" t="inlineStr">
-        <is>
-          <t>Frequency</t>
-        </is>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>14.68-30.75</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>4.53-5.15</t>
+          <t>30.75-46.83</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>5.15-5.76</t>
+          <t>46.83-62.90</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>5.76-6.38</t>
+          <t>62.90-78.97</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6.38-7.00</t>
+          <t>78.97-95.04</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>7.00-7.61</t>
+          <t>95.04-111.11</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7.61-8.23</t>
+          <t>111.11-127.18</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13522,7 +16520,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>8.23-8.85</t>
+          <t>127.18-143.25</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -13532,7 +16530,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>8.85-9.46</t>
+          <t>143.25-159.32</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -13542,47 +16540,160 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>9.46-10.08</t>
+          <t>159.32-175.39</t>
         </is>
       </c>
       <c r="B105" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>10.08-10.70</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107"/>
+    <row r="106"/>
+    <row r="107">
+      <c r="A107" s="1" t="inlineStr">
+        <is>
+          <t>Time Bins (s)</t>
+        </is>
+      </c>
+      <c r="B107" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
-        <is>
-          <t>Hour</t>
-        </is>
-      </c>
-      <c r="B108" s="1" t="inlineStr">
-        <is>
-          <t>Packages Retrieved</t>
-        </is>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>5.26-5.86</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-07-31 20:00</t>
+          <t>5.86-6.47</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="110"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>6.47-7.07</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7.07-7.67</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7.67-8.28</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>8.28-8.88</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>8.88-9.48</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>9.48-10.09</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>10.09-10.69</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>10.69-11.30</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118"/>
+    <row r="119">
+      <c r="A119" s="1" t="inlineStr">
+        <is>
+          <t>Hour</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="inlineStr">
+        <is>
+          <t>Packages Retrieved</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-08-05 20:00</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-08-05 21:00</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>

--- a/master_report.xlsx
+++ b/master_report.xlsx
@@ -1540,7 +1540,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1619,16 +1619,6 @@
           <t>Total Errors</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Stow Driver Shift Time (hr)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Retrieve Driver Shift Time (hr)</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1675,12 +1665,6 @@
       <c r="N2" t="n">
         <v>53</v>
       </c>
-      <c r="O2" t="n">
-        <v>3.801308611666667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1726,12 +1710,6 @@
       </c>
       <c r="N3" t="n">
         <v>180</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.182359001666669</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.9681610277777779</v>
       </c>
     </row>
   </sheetData>
